--- a/DOC/慢检测逻辑判断.xlsx
+++ b/DOC/慢检测逻辑判断.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53041\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02EC3F84-1A30-4ADF-BD8B-26CDB06C9094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{1626659F-333B-4CB9-906D-5C8E1204DA37}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>bigmotion_time_vote</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +58,62 @@
   </si>
   <si>
     <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当次大动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次大1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当次是F列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当次是C/D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E连续出现三次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次是微1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当次是F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,10 +224,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -248,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -300,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -494,31 +536,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EF4D2A-D89C-4750-872A-6E50AA558EE5}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="28.1328125" customWidth="1"/>
+    <col min="2" max="2" width="22.265625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" customWidth="1"/>
+    <col min="5" max="5" width="24.1328125" customWidth="1"/>
+    <col min="6" max="6" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -534,19 +576,19 @@
       <c r="E1" s="5">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -554,9 +596,9 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -572,9 +614,9 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -584,18 +626,18 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -611,7 +653,57 @@
       <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DOC/慢检测逻辑判断.xlsx
+++ b/DOC/慢检测逻辑判断.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>bigmotion_time_vote</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当次大动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,19 +89,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E连续出现三次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一次是微1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当次是F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当次大动作B列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次是微1，c/d/e列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面一个周期还是F列的话连续输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E连续出现三次，第三次出现时输出微1，并清掉等再连续出现时再输出微1，不连续出现就输出微0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="28.1328125" customWidth="1"/>
-    <col min="2" max="2" width="22.265625" customWidth="1"/>
+    <col min="2" max="2" width="47.06640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="27.265625" customWidth="1"/>
     <col min="5" max="5" width="24.1328125" customWidth="1"/>
@@ -588,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -627,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -660,28 +664,25 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -689,20 +690,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/慢检测逻辑判断.xlsx
+++ b/DOC/慢检测逻辑判断.xlsx
@@ -540,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
